--- a/biology/Médecine/Sillon_(anatomie)/Sillon_(anatomie).xlsx
+++ b/biology/Médecine/Sillon_(anatomie)/Sillon_(anatomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie un sillon est un relief creux étroit et allongé sur un organe ou entre deux éléments anatomiques. Il peut être nommé gouttière lorsqu'il prend une forme arrondie ou fissure lorsqu'il est plus profond ou ouvert.
 Le système nerveux est parcourus de nombreux sillons.
